--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_16.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49962.37213544379</v>
+        <v>49962.37213544376</v>
       </c>
     </row>
     <row r="7">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.7485437642542886</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.748543764254287</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>19.22352837197766</v>
       </c>
       <c r="H9" t="n">
-        <v>5.200981756320542</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>18.70652356075183</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.56209233042347</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.16697784598549</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="E11" t="n">
-        <v>15.83348434264533</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="F11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>75.9478628023595</v>
+        <v>66.89487755631828</v>
       </c>
       <c r="H11" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>53.56109635661105</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>65.42529764590962</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.85634635615706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>66.89487755631825</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.21809620174886</v>
+        <v>15.83348434264533</v>
       </c>
       <c r="S14" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>75.9478628023595</v>
@@ -1666,7 +1666,7 @@
         <v>75.9478628023595</v>
       </c>
       <c r="V14" t="n">
-        <v>35.6767813545694</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.474623952406898</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.85634635615706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.228584518226661</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.33532272952761</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>75.9478628023595</v>
@@ -1745,10 +1745,10 @@
         <v>75.9478628023595</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>66.89487755631824</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.43521272596432</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>5.712245507081562</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>21.14745823304588</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>35.67678135456943</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>31.21809620174886</v>
       </c>
       <c r="S17" t="n">
-        <v>66.89487755631825</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="U17" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>17.99718910885677</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>65.42529764590962</v>
+        <v>43.03853120016122</v>
       </c>
       <c r="I18" t="n">
         <v>23.85634635615706</v>
       </c>
       <c r="J18" t="n">
-        <v>6.228584518226661</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.33532272952761</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>75.9478628023595</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>75.94786280235951</v>
       </c>
     </row>
     <row r="19">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>21.14745823304588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>21.14745823304588</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>66.89487755631824</v>
       </c>
       <c r="I20" t="n">
-        <v>51.06139321367293</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>15.83348434264538</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.94786280235959</v>
+        <v>66.89487755631824</v>
       </c>
       <c r="C21" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>66.89487755631829</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>75.94786280235959</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>75.9478628023595</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>21.147458233046</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>21.14745823304588</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>193.3854158231838</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>35.49376133073509</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2.347714374023294</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>28.23631971346524</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.22113434398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>49.84238065193393</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>10.34094182947057</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="E29" t="n">
+        <v>193.3854158231838</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>219.5565574740961</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>193.3854158231838</v>
-      </c>
-      <c r="U29" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>40.51208937027509</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>23.20403983092403</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.39842501387593</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>193.3854158231838</v>
+      </c>
+      <c r="W32" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>193.3854158231838</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="X32" t="n">
         <v>219.5565574740961</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>132.6551205385437</v>
@@ -3116,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>86.85407034633428</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>46.07616275087509</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>26.26673587051636</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>191.22113434398</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>31.90177044380178</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>219.5565574740961</v>
-      </c>
-      <c r="C35" t="n">
-        <v>219.5565574740961</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>193.3854158231838</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>219.5565574740961</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>219.5565574740961</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>161.483645379382</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3398,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>57.43043962834398</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>8.408354303843566</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>17.55899135242036</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>191.2211343439799</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>219.5565574740961</v>
+        <v>193.3854158231838</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>193.3854158231838</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.6845722892616</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3593,10 +3593,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>103.8169810817115</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.23631971346524</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.2211343439799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G41" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H41" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>193.3854158231839</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>27.546893609617</v>
       </c>
       <c r="X42" t="n">
-        <v>142.1289045412352</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>48.65313496559079</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.5679993783892</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>191.22113434398</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>193.385415823184</v>
       </c>
       <c r="E44" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>219.5565574740961</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740965</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>72.77623149104656</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>86.85407034633428</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>191.22113434398</v>
+        <v>191.2211343439803</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.369463040056907</v>
+        <v>62.72541230642274</v>
       </c>
       <c r="C8" t="n">
-        <v>2.369463040056907</v>
+        <v>42.3547276135081</v>
       </c>
       <c r="D8" t="n">
-        <v>2.369463040056907</v>
+        <v>21.98404292059347</v>
       </c>
       <c r="E8" t="n">
-        <v>2.369463040056907</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="F8" t="n">
-        <v>2.369463040056907</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="G8" t="n">
-        <v>2.369463040056907</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="H8" t="n">
-        <v>2.369463040056907</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="I8" t="n">
-        <v>2.369463040056907</v>
+        <v>1.613358227678839</v>
       </c>
       <c r="J8" t="n">
         <v>1.613358227678839</v>
@@ -4825,31 +4825,31 @@
         <v>63.48151711880081</v>
       </c>
       <c r="Q8" t="n">
-        <v>43.11083242588617</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="R8" t="n">
-        <v>22.74014773297154</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="S8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="T8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="U8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="V8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="W8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="X8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.369463040056907</v>
+        <v>63.48151711880081</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="C9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="D9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="E9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="F9" t="n">
-        <v>6.866875153255144</v>
+        <v>60.2972266910273</v>
       </c>
       <c r="G9" t="n">
-        <v>6.866875153255144</v>
+        <v>40.87952126478724</v>
       </c>
       <c r="H9" t="n">
-        <v>1.613358227678839</v>
+        <v>20.50883657187261</v>
       </c>
       <c r="I9" t="n">
-        <v>1.613358227678839</v>
+        <v>20.50883657187261</v>
       </c>
       <c r="J9" t="n">
         <v>1.613358227678839</v>
@@ -4895,7 +4895,7 @@
         <v>40.33929546304194</v>
       </c>
       <c r="N9" t="n">
-        <v>60.30460353056756</v>
+        <v>49.06294529190112</v>
       </c>
       <c r="O9" t="n">
         <v>69.02825335942674</v>
@@ -4904,31 +4904,31 @@
         <v>80.66791138394194</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.97892923199905</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="R9" t="n">
-        <v>47.60824453908441</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="S9" t="n">
-        <v>47.60824453908441</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="T9" t="n">
-        <v>27.23755984616978</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="U9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="V9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="W9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="X9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.866875153255144</v>
+        <v>80.66791138394194</v>
       </c>
     </row>
     <row r="10">
@@ -5020,37 +5020,37 @@
         <v>303.791451209438</v>
       </c>
       <c r="C11" t="n">
-        <v>303.791451209438</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="D11" t="n">
-        <v>303.791451209438</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="E11" t="n">
-        <v>287.7980326815134</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="F11" t="n">
-        <v>211.0830197498372</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="G11" t="n">
-        <v>134.3680068181609</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="H11" t="n">
-        <v>57.65299388648467</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="I11" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="J11" t="n">
-        <v>8.518653200747869</v>
+        <v>8.518653200747888</v>
       </c>
       <c r="K11" t="n">
-        <v>32.72891329418865</v>
+        <v>32.72891329418867</v>
       </c>
       <c r="L11" t="n">
-        <v>77.70909531020686</v>
+        <v>77.70909531020689</v>
       </c>
       <c r="M11" t="n">
-        <v>140.5843367211124</v>
+        <v>140.5843367211125</v>
       </c>
       <c r="N11" t="n">
         <v>206.3455576655149</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="C12" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="D12" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="E12" t="n">
-        <v>249.6893336775076</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="F12" t="n">
-        <v>172.9743207458314</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="G12" t="n">
-        <v>96.25930781415511</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="H12" t="n">
-        <v>30.17314857586256</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="I12" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="J12" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="K12" t="n">
-        <v>27.18934645194804</v>
+        <v>27.18934645194802</v>
       </c>
       <c r="L12" t="n">
-        <v>74.33970537129223</v>
+        <v>74.33970537129221</v>
       </c>
       <c r="M12" t="n">
         <v>137.2014819011798</v>
@@ -5150,22 +5150,22 @@
         <v>303.791451209438</v>
       </c>
       <c r="T12" t="n">
-        <v>303.791451209438</v>
+        <v>236.2208678192176</v>
       </c>
       <c r="U12" t="n">
-        <v>303.791451209438</v>
+        <v>159.5058548875413</v>
       </c>
       <c r="V12" t="n">
-        <v>303.791451209438</v>
+        <v>82.79084195586503</v>
       </c>
       <c r="W12" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="X12" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="Y12" t="n">
-        <v>303.791451209438</v>
+        <v>6.075829024188761</v>
       </c>
     </row>
     <row r="13">
@@ -5202,7 +5202,7 @@
         <v>11.8457739808368</v>
       </c>
       <c r="K13" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="L13" t="n">
         <v>10.95106657773219</v>
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="C14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="D14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="E14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="F14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="G14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="H14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="I14" t="n">
         <v>6.07582902418876</v>
       </c>
       <c r="J14" t="n">
-        <v>8.518653200747892</v>
+        <v>8.518653200747877</v>
       </c>
       <c r="K14" t="n">
-        <v>32.72891329418867</v>
+        <v>32.72891329418866</v>
       </c>
       <c r="L14" t="n">
-        <v>77.70909531020681</v>
+        <v>77.70909531020686</v>
       </c>
       <c r="M14" t="n">
         <v>140.5843367211124</v>
       </c>
       <c r="N14" t="n">
-        <v>206.3455576655148</v>
+        <v>206.3455576655149</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0412330294158</v>
+        <v>263.0412330294159</v>
       </c>
       <c r="P14" t="n">
         <v>297.4567749038205</v>
@@ -5302,28 +5302,28 @@
         <v>303.791451209438</v>
       </c>
       <c r="R14" t="n">
-        <v>272.258020702621</v>
+        <v>287.7980326815134</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5430077709447</v>
+        <v>287.7980326815134</v>
       </c>
       <c r="T14" t="n">
-        <v>118.8279948392685</v>
+        <v>211.0830197498372</v>
       </c>
       <c r="U14" t="n">
-        <v>42.1129819075922</v>
+        <v>134.3680068181609</v>
       </c>
       <c r="V14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="W14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="X14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.07582902418876</v>
+        <v>57.65299388648467</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H15" t="n">
-        <v>36.46464808922283</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I15" t="n">
-        <v>12.36732853754902</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J15" t="n">
         <v>6.07582902418876</v>
@@ -5372,7 +5372,7 @@
         <v>207.5625237956372</v>
       </c>
       <c r="O15" t="n">
-        <v>262.9301139282919</v>
+        <v>262.9301139282918</v>
       </c>
       <c r="P15" t="n">
         <v>299.5375944741908</v>
@@ -5381,28 +5381,28 @@
         <v>303.791451209438</v>
       </c>
       <c r="R15" t="n">
-        <v>274.159812088703</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S15" t="n">
-        <v>197.4447991570268</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T15" t="n">
-        <v>120.7297862253505</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U15" t="n">
-        <v>44.01477329367424</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="V15" t="n">
-        <v>44.01477329367424</v>
+        <v>82.79084195586502</v>
       </c>
       <c r="W15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="X15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.01477329367424</v>
+        <v>6.07582902418876</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J16" t="n">
-        <v>11.8457739808368</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="K16" t="n">
         <v>6.07582902418876</v>
@@ -5463,25 +5463,25 @@
         <v>27.43689794645733</v>
       </c>
       <c r="S16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="T16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="U16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="V16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="W16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="X16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.43689794645733</v>
+        <v>6.07582902418876</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="C17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="D17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="E17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="F17" t="n">
-        <v>6.07582902418876</v>
+        <v>118.8279948392685</v>
       </c>
       <c r="G17" t="n">
-        <v>6.07582902418876</v>
+        <v>42.11298190759223</v>
       </c>
       <c r="H17" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="I17" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="J17" t="n">
-        <v>8.518653200747869</v>
+        <v>8.518653200747883</v>
       </c>
       <c r="K17" t="n">
-        <v>32.72891329418865</v>
+        <v>32.72891329418866</v>
       </c>
       <c r="L17" t="n">
         <v>77.70909531020686</v>
@@ -5539,28 +5539,28 @@
         <v>303.791451209438</v>
       </c>
       <c r="R17" t="n">
-        <v>303.791451209438</v>
+        <v>272.258020702621</v>
       </c>
       <c r="S17" t="n">
-        <v>236.2208678192175</v>
+        <v>272.258020702621</v>
       </c>
       <c r="T17" t="n">
-        <v>159.5058548875413</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="U17" t="n">
-        <v>82.79084195586502</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="V17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="W17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="X17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.07582902418876</v>
+        <v>195.5430077709448</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.7297862253505</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="C18" t="n">
-        <v>120.7297862253505</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="D18" t="n">
-        <v>120.7297862253505</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="E18" t="n">
-        <v>120.7297862253505</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="F18" t="n">
-        <v>120.7297862253505</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="G18" t="n">
-        <v>102.5508073275154</v>
+        <v>73.64641241440926</v>
       </c>
       <c r="H18" t="n">
-        <v>36.46464808922283</v>
+        <v>30.17314857586256</v>
       </c>
       <c r="I18" t="n">
-        <v>12.36732853754902</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="J18" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="K18" t="n">
         <v>27.18934645194804</v>
@@ -5618,28 +5618,28 @@
         <v>303.791451209438</v>
       </c>
       <c r="R18" t="n">
-        <v>274.159812088703</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S18" t="n">
-        <v>197.4447991570268</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T18" t="n">
-        <v>197.4447991570268</v>
+        <v>303.791451209438</v>
       </c>
       <c r="U18" t="n">
-        <v>197.4447991570268</v>
+        <v>303.791451209438</v>
       </c>
       <c r="V18" t="n">
-        <v>197.4447991570268</v>
+        <v>303.791451209438</v>
       </c>
       <c r="W18" t="n">
-        <v>197.4447991570268</v>
+        <v>227.0764382777618</v>
       </c>
       <c r="X18" t="n">
-        <v>197.4447991570268</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="Y18" t="n">
-        <v>197.4447991570268</v>
+        <v>73.64641241440926</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="C19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="D19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="E19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="F19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="G19" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="H19" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="I19" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="J19" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="K19" t="n">
-        <v>6.07582902418876</v>
+        <v>6.075829024188761</v>
       </c>
       <c r="L19" t="n">
         <v>10.95106657773219</v>
@@ -5709,16 +5709,16 @@
         <v>27.43689794645733</v>
       </c>
       <c r="V19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="W19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="X19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.07582902418876</v>
+        <v>27.43689794645733</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>287.7980326815137</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="C20" t="n">
-        <v>287.7980326815137</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="D20" t="n">
-        <v>287.7980326815137</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="E20" t="n">
-        <v>211.0830197498374</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="F20" t="n">
-        <v>134.368006818161</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="G20" t="n">
-        <v>57.65299388648466</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="H20" t="n">
-        <v>57.65299388648466</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I20" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J20" t="n">
-        <v>8.518653200747963</v>
+        <v>8.518653200747892</v>
       </c>
       <c r="K20" t="n">
-        <v>32.72891329418877</v>
+        <v>32.72891329418867</v>
       </c>
       <c r="L20" t="n">
-        <v>77.70909531020706</v>
+        <v>77.70909531020678</v>
       </c>
       <c r="M20" t="n">
-        <v>140.5843367211127</v>
+        <v>140.5843367211124</v>
       </c>
       <c r="N20" t="n">
-        <v>206.3455576655152</v>
+        <v>206.3455576655148</v>
       </c>
       <c r="O20" t="n">
-        <v>263.0412330294163</v>
+        <v>263.0412330294158</v>
       </c>
       <c r="P20" t="n">
-        <v>297.4567749038208</v>
+        <v>297.4567749038205</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R20" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S20" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T20" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U20" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V20" t="n">
-        <v>287.7980326815137</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="W20" t="n">
-        <v>287.7980326815137</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="X20" t="n">
-        <v>287.7980326815137</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="Y20" t="n">
-        <v>287.7980326815137</v>
+        <v>150.3614253460855</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>227.076438277762</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C21" t="n">
-        <v>150.3614253460856</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D21" t="n">
-        <v>82.79084195586513</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J21" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="K21" t="n">
-        <v>27.18934645194808</v>
+        <v>27.18934645194804</v>
       </c>
       <c r="L21" t="n">
-        <v>74.33970537129234</v>
+        <v>74.33970537129223</v>
       </c>
       <c r="M21" t="n">
-        <v>137.20148190118</v>
+        <v>137.2014819011798</v>
       </c>
       <c r="N21" t="n">
-        <v>207.5625237956375</v>
+        <v>207.5625237956372</v>
       </c>
       <c r="O21" t="n">
-        <v>262.9301139282922</v>
+        <v>262.9301139282919</v>
       </c>
       <c r="P21" t="n">
-        <v>299.5375944741911</v>
+        <v>299.5375944741908</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="R21" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="S21" t="n">
-        <v>303.7914512094384</v>
+        <v>303.791451209438</v>
       </c>
       <c r="T21" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="U21" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="V21" t="n">
-        <v>303.7914512094384</v>
+        <v>227.0764382777617</v>
       </c>
       <c r="W21" t="n">
-        <v>303.7914512094384</v>
+        <v>150.3614253460855</v>
       </c>
       <c r="X21" t="n">
-        <v>303.7914512094384</v>
+        <v>73.64641241440921</v>
       </c>
       <c r="Y21" t="n">
-        <v>303.7914512094384</v>
+        <v>73.64641241440921</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="C22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="D22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="E22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="F22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="G22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="H22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="I22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="J22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="K22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="L22" t="n">
-        <v>10.95106657773222</v>
+        <v>10.95106657773219</v>
       </c>
       <c r="M22" t="n">
-        <v>17.41092563994143</v>
+        <v>17.41092563994137</v>
       </c>
       <c r="N22" t="n">
-        <v>26.8994816840552</v>
+        <v>26.8994816840551</v>
       </c>
       <c r="O22" t="n">
-        <v>27.43689794645746</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="P22" t="n">
-        <v>27.43689794645746</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.43689794645746</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="R22" t="n">
-        <v>27.43689794645746</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="S22" t="n">
-        <v>27.43689794645746</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="T22" t="n">
-        <v>27.43689794645746</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="U22" t="n">
-        <v>6.075829024188768</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="V22" t="n">
-        <v>6.075829024188768</v>
+        <v>27.43689794645733</v>
       </c>
       <c r="W22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="X22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.075829024188768</v>
+        <v>6.07582902418876</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>461.1131255556977</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="C23" t="n">
+        <v>461.1131255556978</v>
+      </c>
+      <c r="D23" t="n">
+        <v>461.1131255556978</v>
+      </c>
+      <c r="E23" t="n">
+        <v>461.1131255556978</v>
+      </c>
+      <c r="F23" t="n">
+        <v>461.1131255556978</v>
+      </c>
+      <c r="G23" t="n">
         <v>239.3388250768127</v>
-      </c>
-      <c r="D23" t="n">
-        <v>239.3388250768127</v>
-      </c>
-      <c r="E23" t="n">
-        <v>239.3388250768127</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17.56452459792769</v>
-      </c>
-      <c r="G23" t="n">
-        <v>17.56452459792769</v>
       </c>
       <c r="H23" t="n">
         <v>17.56452459792769</v>
@@ -5989,22 +5989,22 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J23" t="n">
-        <v>61.76566646422702</v>
+        <v>61.76566646422704</v>
       </c>
       <c r="K23" t="n">
-        <v>148.5608200474253</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L23" t="n">
         <v>271.1830965723307</v>
       </c>
       <c r="M23" t="n">
-        <v>420.4501281543859</v>
+        <v>420.4501281543857</v>
       </c>
       <c r="N23" t="n">
-        <v>574.0010487547428</v>
+        <v>574.0010487547427</v>
       </c>
       <c r="O23" t="n">
-        <v>713.5940480809668</v>
+        <v>713.5940480809667</v>
       </c>
       <c r="P23" t="n">
         <v>818.7605380598412</v>
@@ -6013,28 +6013,28 @@
         <v>878.2262298963847</v>
       </c>
       <c r="R23" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S23" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="T23" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="U23" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="V23" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="W23" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="X23" t="n">
-        <v>878.2262298963846</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="Y23" t="n">
-        <v>682.8874260345827</v>
+        <v>461.1131255556978</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>216.3992594535049</v>
+        <v>268.4567536295896</v>
       </c>
       <c r="C24" t="n">
-        <v>216.3992594535049</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="D24" t="n">
-        <v>216.3992594535049</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E24" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F24" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G24" t="n">
-        <v>95.90644344583291</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H24" t="n">
-        <v>32.41430678935676</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I24" t="n">
         <v>17.56452459792769</v>
@@ -6092,28 +6092,28 @@
         <v>715.3219541700623</v>
       </c>
       <c r="R24" t="n">
-        <v>702.3665110839293</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="S24" t="n">
-        <v>608.329838238913</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="T24" t="n">
-        <v>605.9584095782834</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U24" t="n">
-        <v>605.9584095782834</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V24" t="n">
-        <v>605.9584095782834</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W24" t="n">
-        <v>392.7252413146122</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="X24" t="n">
-        <v>216.3992594535049</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="Y24" t="n">
-        <v>216.3992594535049</v>
+        <v>304.3090378020493</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>685.0735689428694</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="C25" t="n">
-        <v>685.0735689428694</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="D25" t="n">
-        <v>685.0735689428694</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="E25" t="n">
-        <v>685.0735689428694</v>
+        <v>182.1956504873364</v>
       </c>
       <c r="F25" t="n">
-        <v>685.0735689428694</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G25" t="n">
-        <v>685.0735689428694</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H25" t="n">
-        <v>685.0735689428694</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="I25" t="n">
-        <v>685.0735689428694</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="J25" t="n">
-        <v>685.0735689428694</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="K25" t="n">
-        <v>705.0593722317669</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L25" t="n">
-        <v>742.7461676397089</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M25" t="n">
-        <v>783.8012139394988</v>
+        <v>116.292169594557</v>
       </c>
       <c r="N25" t="n">
-        <v>827.0623609927291</v>
+        <v>159.5533166477872</v>
       </c>
       <c r="O25" t="n">
-        <v>858.7942313043051</v>
+        <v>191.2851869593632</v>
       </c>
       <c r="P25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Q25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="R25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X25" t="n">
-        <v>878.2262298963846</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y25" t="n">
-        <v>685.0735689428694</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>239.3388250768127</v>
+        <v>682.8874260345826</v>
       </c>
       <c r="C26" t="n">
-        <v>239.3388250768127</v>
+        <v>682.8874260345826</v>
       </c>
       <c r="D26" t="n">
-        <v>239.3388250768127</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="E26" t="n">
         <v>239.3388250768127</v>
       </c>
       <c r="F26" t="n">
-        <v>239.3388250768127</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G26" t="n">
-        <v>239.3388250768127</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H26" t="n">
         <v>17.56452459792769</v>
@@ -6226,10 +6226,10 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J26" t="n">
-        <v>61.765666464227</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K26" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474252</v>
       </c>
       <c r="L26" t="n">
         <v>271.1830965723307</v>
@@ -6259,19 +6259,19 @@
         <v>878.2262298963844</v>
       </c>
       <c r="U26" t="n">
-        <v>656.4519294174995</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="V26" t="n">
-        <v>656.4519294174995</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="W26" t="n">
-        <v>656.4519294174995</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="X26" t="n">
-        <v>434.6776289386145</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="Y26" t="n">
-        <v>434.6776289386145</v>
+        <v>878.2262298963844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>201.9054348913395</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="C27" t="n">
-        <v>67.9103636402852</v>
+        <v>134.4616823785353</v>
       </c>
       <c r="D27" t="n">
         <v>17.56452459792769</v>
@@ -6338,19 +6338,19 @@
         <v>715.3219541700623</v>
       </c>
       <c r="U27" t="n">
-        <v>715.3219541700623</v>
+        <v>518.0205648090155</v>
       </c>
       <c r="V27" t="n">
-        <v>501.6104271630961</v>
+        <v>304.3090378020493</v>
       </c>
       <c r="W27" t="n">
-        <v>501.6104271630961</v>
+        <v>293.8636420147052</v>
       </c>
       <c r="X27" t="n">
-        <v>501.6104271630961</v>
+        <v>293.8636420147052</v>
       </c>
       <c r="Y27" t="n">
-        <v>342.2084675269261</v>
+        <v>134.4616823785353</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T28" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="U28" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V28" t="n">
-        <v>210.7171855514427</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W28" t="n">
         <v>17.56452459792769</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>239.3388250768126</v>
+        <v>434.6776289386145</v>
       </c>
       <c r="C29" t="n">
-        <v>239.3388250768126</v>
+        <v>434.6776289386145</v>
       </c>
       <c r="D29" t="n">
-        <v>239.3388250768126</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="E29" t="n">
         <v>17.56452459792769</v>
@@ -6463,52 +6463,52 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J29" t="n">
-        <v>61.7656664642268</v>
+        <v>61.76566646422704</v>
       </c>
       <c r="K29" t="n">
-        <v>148.5608200474248</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L29" t="n">
-        <v>271.1830965723304</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M29" t="n">
-        <v>420.4501281543854</v>
+        <v>420.4501281543856</v>
       </c>
       <c r="N29" t="n">
-        <v>574.0010487547422</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O29" t="n">
-        <v>713.5940480809663</v>
+        <v>713.5940480809664</v>
       </c>
       <c r="P29" t="n">
-        <v>818.7605380598409</v>
+        <v>818.760538059841</v>
       </c>
       <c r="Q29" t="n">
-        <v>878.2262298963843</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="R29" t="n">
-        <v>878.2262298963843</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="S29" t="n">
-        <v>878.2262298963843</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="T29" t="n">
-        <v>682.8874260345825</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="U29" t="n">
-        <v>461.1131255556976</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="V29" t="n">
-        <v>461.1131255556976</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="W29" t="n">
-        <v>461.1131255556976</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="X29" t="n">
-        <v>461.1131255556976</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="Y29" t="n">
-        <v>461.1131255556976</v>
+        <v>656.4519294174995</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>415.6169618983055</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C30" t="n">
-        <v>281.6218906472512</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D30" t="n">
-        <v>164.7247328666436</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E30" t="n">
-        <v>164.7247328666436</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F30" t="n">
-        <v>164.7247328666436</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G30" t="n">
-        <v>58.48582699214495</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H30" t="n">
         <v>17.56452459792769</v>
@@ -6545,49 +6545,49 @@
         <v>36.2691938677774</v>
       </c>
       <c r="K30" t="n">
-        <v>99.89115689943306</v>
+        <v>99.89115689943307</v>
       </c>
       <c r="L30" t="n">
-        <v>204.199366801228</v>
+        <v>204.1993668012281</v>
       </c>
       <c r="M30" t="n">
         <v>333.7616594659743</v>
       </c>
       <c r="N30" t="n">
-        <v>472.5885816838</v>
+        <v>472.5885816838001</v>
       </c>
       <c r="O30" t="n">
-        <v>590.5890764168993</v>
+        <v>590.5890764168994</v>
       </c>
       <c r="P30" t="n">
-        <v>677.464984719064</v>
+        <v>677.4649847190642</v>
       </c>
       <c r="Q30" t="n">
-        <v>715.3219541700621</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="R30" t="n">
-        <v>715.3219541700621</v>
+        <v>702.3665110839293</v>
       </c>
       <c r="S30" t="n">
-        <v>715.3219541700621</v>
+        <v>608.329838238913</v>
       </c>
       <c r="T30" t="n">
-        <v>715.3219541700621</v>
+        <v>452.0158650375812</v>
       </c>
       <c r="U30" t="n">
-        <v>715.3219541700621</v>
+        <v>254.7144756765343</v>
       </c>
       <c r="V30" t="n">
-        <v>715.3219541700621</v>
+        <v>41.00294866956813</v>
       </c>
       <c r="W30" t="n">
-        <v>715.3219541700621</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X30" t="n">
-        <v>715.3219541700621</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y30" t="n">
-        <v>555.9199945338921</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="C31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="D31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="E31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="F31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="G31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="H31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="I31" t="n">
-        <v>17.56452459792769</v>
+        <v>23.01747915739833</v>
       </c>
       <c r="J31" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="K31" t="n">
-        <v>37.55032788682518</v>
+        <v>37.55032788682519</v>
       </c>
       <c r="L31" t="n">
-        <v>75.23712329476714</v>
+        <v>75.23712329476716</v>
       </c>
       <c r="M31" t="n">
         <v>116.292169594557</v>
@@ -6651,22 +6651,22 @@
         <v>210.7171855514427</v>
       </c>
       <c r="T31" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U31" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="V31" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="W31" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="X31" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.56452459792769</v>
+        <v>210.7171855514427</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>656.4519294174995</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C32" t="n">
-        <v>656.4519294174995</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D32" t="n">
-        <v>434.6776289386145</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E32" t="n">
-        <v>434.6776289386145</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F32" t="n">
-        <v>434.6776289386145</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G32" t="n">
-        <v>239.3388250768127</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H32" t="n">
         <v>17.56452459792769</v>
@@ -6700,25 +6700,25 @@
         <v>17.56452459792769</v>
       </c>
       <c r="J32" t="n">
-        <v>61.765666464227</v>
+        <v>61.76566646422704</v>
       </c>
       <c r="K32" t="n">
         <v>148.5608200474251</v>
       </c>
       <c r="L32" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723305</v>
       </c>
       <c r="M32" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N32" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547424</v>
       </c>
       <c r="O32" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809664</v>
       </c>
       <c r="P32" t="n">
-        <v>818.7605380598411</v>
+        <v>818.760538059841</v>
       </c>
       <c r="Q32" t="n">
         <v>878.2262298963844</v>
@@ -6736,16 +6736,16 @@
         <v>878.2262298963844</v>
       </c>
       <c r="V32" t="n">
-        <v>878.2262298963844</v>
+        <v>682.8874260345826</v>
       </c>
       <c r="W32" t="n">
-        <v>878.2262298963844</v>
+        <v>461.1131255556976</v>
       </c>
       <c r="X32" t="n">
-        <v>878.2262298963844</v>
+        <v>239.3388250768127</v>
       </c>
       <c r="Y32" t="n">
-        <v>656.4519294174995</v>
+        <v>239.3388250768127</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>239.2909800371984</v>
+        <v>382.6819991076233</v>
       </c>
       <c r="C33" t="n">
-        <v>105.2959087861441</v>
+        <v>248.686927856569</v>
       </c>
       <c r="D33" t="n">
-        <v>105.2959087861441</v>
+        <v>248.686927856569</v>
       </c>
       <c r="E33" t="n">
-        <v>17.56452459792769</v>
+        <v>248.686927856569</v>
       </c>
       <c r="F33" t="n">
-        <v>17.56452459792769</v>
+        <v>202.1453493203315</v>
       </c>
       <c r="G33" t="n">
-        <v>17.56452459792769</v>
+        <v>95.90644344583291</v>
       </c>
       <c r="H33" t="n">
-        <v>17.56452459792769</v>
+        <v>32.41430678935676</v>
       </c>
       <c r="I33" t="n">
         <v>17.56452459792769</v>
@@ -6809,22 +6809,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T33" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U33" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="V33" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="W33" t="n">
-        <v>715.3219541700623</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="X33" t="n">
-        <v>538.9959723089551</v>
+        <v>382.6819991076233</v>
       </c>
       <c r="Y33" t="n">
-        <v>379.5940126727851</v>
+        <v>382.6819991076233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>685.0735689428693</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="C34" t="n">
-        <v>685.0735689428693</v>
+        <v>851.6941734615194</v>
       </c>
       <c r="D34" t="n">
-        <v>685.0735689428693</v>
+        <v>851.6941734615194</v>
       </c>
       <c r="E34" t="n">
-        <v>685.0735689428693</v>
+        <v>851.6941734615194</v>
       </c>
       <c r="F34" t="n">
-        <v>685.0735689428693</v>
+        <v>851.6941734615194</v>
       </c>
       <c r="G34" t="n">
         <v>685.0735689428693</v>
@@ -6894,16 +6894,16 @@
         <v>878.2262298963844</v>
       </c>
       <c r="V34" t="n">
-        <v>685.0735689428693</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="W34" t="n">
-        <v>685.0735689428693</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0735689428693</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="Y34" t="n">
-        <v>685.0735689428693</v>
+        <v>878.2262298963844</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>239.3388250768127</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="C35" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="D35" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="E35" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="F35" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="G35" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="H35" t="n">
-        <v>17.56452459792769</v>
+        <v>49.78853514722242</v>
       </c>
       <c r="I35" t="n">
         <v>17.56452459792769</v>
       </c>
       <c r="J35" t="n">
-        <v>61.76566646422702</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K35" t="n">
-        <v>148.5608200474252</v>
+        <v>148.5608200474251</v>
       </c>
       <c r="L35" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723306</v>
       </c>
       <c r="M35" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N35" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547423</v>
       </c>
       <c r="O35" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809663</v>
       </c>
       <c r="P35" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598409</v>
       </c>
       <c r="Q35" t="n">
         <v>878.2262298963844</v>
@@ -6967,22 +6967,22 @@
         <v>878.2262298963844</v>
       </c>
       <c r="T35" t="n">
-        <v>682.8874260345826</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="U35" t="n">
-        <v>682.8874260345826</v>
+        <v>878.2262298963844</v>
       </c>
       <c r="V35" t="n">
-        <v>682.8874260345826</v>
+        <v>656.4519294174995</v>
       </c>
       <c r="W35" t="n">
-        <v>461.1131255556976</v>
+        <v>434.6776289386145</v>
       </c>
       <c r="X35" t="n">
-        <v>461.1131255556976</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="Y35" t="n">
-        <v>461.1131255556976</v>
+        <v>49.78853514722242</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>497.909449454757</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C36" t="n">
-        <v>363.9143782037027</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D36" t="n">
-        <v>247.0172204230951</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E36" t="n">
-        <v>126.5244044154231</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F36" t="n">
         <v>17.56452459792769</v>
@@ -7046,22 +7046,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T36" t="n">
-        <v>657.311409090927</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="U36" t="n">
-        <v>657.311409090927</v>
+        <v>715.3219541700623</v>
       </c>
       <c r="V36" t="n">
-        <v>657.311409090927</v>
+        <v>706.8286669944628</v>
       </c>
       <c r="W36" t="n">
-        <v>657.311409090927</v>
+        <v>493.5954987307915</v>
       </c>
       <c r="X36" t="n">
-        <v>657.311409090927</v>
+        <v>317.2695168696843</v>
       </c>
       <c r="Y36" t="n">
-        <v>497.909449454757</v>
+        <v>157.8675572335143</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="C37" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="D37" t="n">
         <v>17.56452459792769</v>
@@ -7122,25 +7122,25 @@
         <v>210.7171855514427</v>
       </c>
       <c r="S37" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="T37" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="U37" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="V37" t="n">
-        <v>210.7171855514427</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="W37" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="X37" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.56452459792769</v>
+        <v>35.3008794993624</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>682.8874260345826</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="C38" t="n">
-        <v>682.8874260345826</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="D38" t="n">
-        <v>682.8874260345826</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="E38" t="n">
-        <v>461.1131255556976</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F38" t="n">
-        <v>461.1131255556976</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G38" t="n">
-        <v>239.3388250768127</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="H38" t="n">
         <v>17.56452459792769</v>
@@ -7186,40 +7186,40 @@
         <v>420.4501281543857</v>
       </c>
       <c r="N38" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547427</v>
       </c>
       <c r="O38" t="n">
         <v>713.5940480809666</v>
       </c>
       <c r="P38" t="n">
-        <v>818.7605380598411</v>
+        <v>818.7605380598412</v>
       </c>
       <c r="Q38" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R38" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="S38" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="T38" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="U38" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="V38" t="n">
-        <v>682.8874260345826</v>
+        <v>656.4519294174996</v>
       </c>
       <c r="W38" t="n">
-        <v>682.8874260345826</v>
+        <v>434.6776289386146</v>
       </c>
       <c r="X38" t="n">
-        <v>682.8874260345826</v>
+        <v>212.9033284597296</v>
       </c>
       <c r="Y38" t="n">
-        <v>682.8874260345826</v>
+        <v>212.9033284597296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>470.1532840782014</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="C39" t="n">
-        <v>470.1532840782014</v>
+        <v>254.9544983862073</v>
       </c>
       <c r="D39" t="n">
-        <v>353.2561262975938</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="E39" t="n">
-        <v>232.7633102899217</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F39" t="n">
-        <v>123.8034304724263</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="G39" t="n">
         <v>17.56452459792769</v>
@@ -7283,22 +7283,22 @@
         <v>715.3219541700623</v>
       </c>
       <c r="T39" t="n">
-        <v>610.4563167137881</v>
+        <v>559.0079809687305</v>
       </c>
       <c r="U39" t="n">
-        <v>610.4563167137881</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="V39" t="n">
-        <v>610.4563167137881</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="W39" t="n">
-        <v>610.4563167137881</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="X39" t="n">
-        <v>610.4563167137881</v>
+        <v>361.7065916076837</v>
       </c>
       <c r="Y39" t="n">
-        <v>610.4563167137881</v>
+        <v>361.7065916076837</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="C40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="D40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="E40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="F40" t="n">
         <v>17.56452459792769</v>
@@ -7356,28 +7356,28 @@
         <v>210.7171855514427</v>
       </c>
       <c r="R40" t="n">
-        <v>182.1956504873364</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="S40" t="n">
-        <v>182.1956504873364</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="T40" t="n">
-        <v>182.1956504873364</v>
+        <v>210.7171855514427</v>
       </c>
       <c r="U40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="V40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="W40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="X40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.1956504873364</v>
+        <v>17.56452459792769</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>682.8874260345826</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="C41" t="n">
-        <v>682.8874260345826</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="D41" t="n">
-        <v>682.8874260345826</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="E41" t="n">
-        <v>682.8874260345826</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="F41" t="n">
-        <v>461.1131255556976</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="G41" t="n">
-        <v>239.3388250768127</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="H41" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I41" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J41" t="n">
-        <v>61.765666464227</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K41" t="n">
-        <v>148.5608200474251</v>
+        <v>148.560820047425</v>
       </c>
       <c r="L41" t="n">
-        <v>271.1830965723307</v>
+        <v>271.1830965723305</v>
       </c>
       <c r="M41" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543855</v>
       </c>
       <c r="N41" t="n">
-        <v>574.0010487547426</v>
+        <v>574.0010487547423</v>
       </c>
       <c r="O41" t="n">
-        <v>713.5940480809666</v>
+        <v>713.5940480809664</v>
       </c>
       <c r="P41" t="n">
         <v>818.7605380598411</v>
       </c>
       <c r="Q41" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R41" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S41" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T41" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="U41" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="V41" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="W41" t="n">
-        <v>878.2262298963844</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="X41" t="n">
-        <v>878.2262298963844</v>
+        <v>682.8874260345829</v>
       </c>
       <c r="Y41" t="n">
-        <v>682.8874260345826</v>
+        <v>682.8874260345829</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>272.052411856654</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="C42" t="n">
         <v>138.0573406055997</v>
@@ -7475,19 +7475,19 @@
         <v>138.0573406055997</v>
       </c>
       <c r="E42" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F42" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G42" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H42" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I42" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J42" t="n">
         <v>36.2691938677774</v>
@@ -7526,16 +7526,16 @@
         <v>715.3219541700623</v>
       </c>
       <c r="V42" t="n">
-        <v>715.3219541700623</v>
+        <v>501.6104271630961</v>
       </c>
       <c r="W42" t="n">
-        <v>715.3219541700623</v>
+        <v>473.7852821028769</v>
       </c>
       <c r="X42" t="n">
-        <v>571.7574041284106</v>
+        <v>297.4593002417697</v>
       </c>
       <c r="Y42" t="n">
-        <v>412.3554444922406</v>
+        <v>138.0573406055997</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="C43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="D43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="E43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="F43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="G43" t="n">
-        <v>829.0816491230604</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="H43" t="n">
-        <v>685.0735689428693</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="I43" t="n">
-        <v>685.0735689428693</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="J43" t="n">
-        <v>685.0735689428693</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="K43" t="n">
-        <v>705.0593722317668</v>
+        <v>705.0593722317672</v>
       </c>
       <c r="L43" t="n">
-        <v>742.7461676397088</v>
+        <v>742.7461676397091</v>
       </c>
       <c r="M43" t="n">
-        <v>783.8012139394987</v>
+        <v>783.801213939499</v>
       </c>
       <c r="N43" t="n">
-        <v>827.0623609927289</v>
+        <v>827.0623609927293</v>
       </c>
       <c r="O43" t="n">
-        <v>858.794231304305</v>
+        <v>858.7942313043053</v>
       </c>
       <c r="P43" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="Q43" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R43" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S43" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T43" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="U43" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="V43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="W43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="X43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.2262298963844</v>
+        <v>685.0735689428697</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>682.8874260345826</v>
+        <v>656.4519294175004</v>
       </c>
       <c r="C44" t="n">
-        <v>682.8874260345826</v>
+        <v>434.6776289386151</v>
       </c>
       <c r="D44" t="n">
-        <v>682.8874260345826</v>
+        <v>239.338825076813</v>
       </c>
       <c r="E44" t="n">
-        <v>461.1131255556976</v>
+        <v>239.338825076813</v>
       </c>
       <c r="F44" t="n">
-        <v>239.3388250768127</v>
+        <v>239.338825076813</v>
       </c>
       <c r="G44" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="H44" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="I44" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="J44" t="n">
-        <v>61.76566646422691</v>
+        <v>61.76566646422715</v>
       </c>
       <c r="K44" t="n">
-        <v>148.5608200474251</v>
+        <v>148.5608200474254</v>
       </c>
       <c r="L44" t="n">
-        <v>271.1830965723307</v>
+        <v>271.183096572331</v>
       </c>
       <c r="M44" t="n">
-        <v>420.4501281543857</v>
+        <v>420.4501281543862</v>
       </c>
       <c r="N44" t="n">
-        <v>574.0010487547423</v>
+        <v>574.0010487547434</v>
       </c>
       <c r="O44" t="n">
-        <v>713.5940480809663</v>
+        <v>713.5940480809676</v>
       </c>
       <c r="P44" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598422</v>
       </c>
       <c r="Q44" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="R44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="S44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="T44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="U44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="V44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="W44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="X44" t="n">
-        <v>878.2262298963844</v>
+        <v>878.2262298963858</v>
       </c>
       <c r="Y44" t="n">
-        <v>682.8874260345826</v>
+        <v>878.2262298963858</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>151.559595848982</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="C45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="D45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="E45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="F45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="G45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="H45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="I45" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="J45" t="n">
-        <v>36.2691938677774</v>
+        <v>36.26919386777748</v>
       </c>
       <c r="K45" t="n">
-        <v>99.8911568994331</v>
+        <v>99.89115689943323</v>
       </c>
       <c r="L45" t="n">
-        <v>204.1993668012281</v>
+        <v>204.1993668012283</v>
       </c>
       <c r="M45" t="n">
-        <v>333.7616594659744</v>
+        <v>333.7616594659747</v>
       </c>
       <c r="N45" t="n">
-        <v>472.5885816838002</v>
+        <v>472.5885816838006</v>
       </c>
       <c r="O45" t="n">
-        <v>590.5890764168994</v>
+        <v>590.5890764169</v>
       </c>
       <c r="P45" t="n">
-        <v>677.4649847190642</v>
+        <v>677.4649847190649</v>
       </c>
       <c r="Q45" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="R45" t="n">
-        <v>715.3219541700623</v>
+        <v>715.3219541700631</v>
       </c>
       <c r="S45" t="n">
-        <v>715.3219541700623</v>
+        <v>641.8106092296121</v>
       </c>
       <c r="T45" t="n">
-        <v>715.3219541700623</v>
+        <v>641.8106092296121</v>
       </c>
       <c r="U45" t="n">
-        <v>715.3219541700623</v>
+        <v>444.5092198685651</v>
       </c>
       <c r="V45" t="n">
-        <v>715.3219541700623</v>
+        <v>230.797692861599</v>
       </c>
       <c r="W45" t="n">
-        <v>627.5905699818459</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="X45" t="n">
-        <v>451.2645881207386</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="Y45" t="n">
-        <v>291.8626284845686</v>
+        <v>17.56452459792771</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="C46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="D46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="E46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="F46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="G46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="H46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="I46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="J46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="K46" t="n">
-        <v>37.55032788682519</v>
+        <v>37.55032788682527</v>
       </c>
       <c r="L46" t="n">
-        <v>75.23712329476717</v>
+        <v>75.23712329476731</v>
       </c>
       <c r="M46" t="n">
-        <v>116.292169594557</v>
+        <v>116.2921695945572</v>
       </c>
       <c r="N46" t="n">
-        <v>159.5533166477873</v>
+        <v>159.5533166477875</v>
       </c>
       <c r="O46" t="n">
-        <v>191.2851869593633</v>
+        <v>191.2851869593636</v>
       </c>
       <c r="P46" t="n">
-        <v>210.7171855514428</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="Q46" t="n">
-        <v>210.7171855514428</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="R46" t="n">
-        <v>210.7171855514428</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="S46" t="n">
-        <v>210.7171855514428</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="T46" t="n">
-        <v>210.7171855514428</v>
+        <v>210.7171855514432</v>
       </c>
       <c r="U46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="V46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="W46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="X46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.56452459792769</v>
+        <v>17.56452459792771</v>
       </c>
     </row>
   </sheetData>
@@ -22813,7 +22813,7 @@
         <v>21.55405633213152</v>
       </c>
       <c r="L5" t="n">
-        <v>11.64353751452477</v>
+        <v>11.64353751452478</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.40627785259141</v>
+        <v>20.40627785259142</v>
       </c>
       <c r="R6" t="n">
         <v>41.35075441487444</v>
@@ -22977,16 +22977,16 @@
         <v>18.90730960179207</v>
       </c>
       <c r="N7" t="n">
-        <v>15.2432936233067</v>
+        <v>15.24329362330671</v>
       </c>
       <c r="O7" t="n">
         <v>22.38954887144386</v>
       </c>
       <c r="P7" t="n">
-        <v>26.95620607407935</v>
+        <v>26.95620607407936</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.40353443947922</v>
+        <v>41.40353443947923</v>
       </c>
       <c r="R7" t="n">
         <v>73.70428898346404</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>405.3704241035903</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>385.8563669338771</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>380.2523127618846</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>390.0298354822868</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23044,7 +23044,7 @@
         <v>60.57778515682809</v>
       </c>
       <c r="J8" t="n">
-        <v>17.73439791272469</v>
+        <v>18.48294167697897</v>
       </c>
       <c r="K8" t="n">
         <v>6.944471810258847</v>
@@ -23065,13 +23065,13 @@
         <v>0.7330732454824584</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09056233042521455</v>
+        <v>20.2575401764107</v>
       </c>
       <c r="R8" t="n">
-        <v>26.55683278152615</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S8" t="n">
-        <v>99.03728414485995</v>
+        <v>119.2042619908454</v>
       </c>
       <c r="T8" t="n">
         <v>217.1559246089122</v>
@@ -23111,19 +23111,19 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>87.70330317333497</v>
       </c>
       <c r="G9" t="n">
-        <v>105.5744941327544</v>
+        <v>86.35096576077676</v>
       </c>
       <c r="H9" t="n">
-        <v>61.49985656883518</v>
+        <v>46.53386047917024</v>
       </c>
       <c r="I9" t="n">
         <v>28.40357357326966</v>
       </c>
       <c r="J9" t="n">
-        <v>18.70652356075183</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.56209233042347</v>
       </c>
       <c r="R9" t="n">
-        <v>17.36841475429958</v>
+        <v>37.53539260028506</v>
       </c>
       <c r="S9" t="n">
         <v>100.4885602284008</v>
       </c>
       <c r="T9" t="n">
-        <v>136.1879834931738</v>
+        <v>156.3549613391593</v>
       </c>
       <c r="U9" t="n">
-        <v>175.1875803396747</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23260,25 +23260,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>330.075481977503</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>324.4714278055105</v>
       </c>
       <c r="E11" t="n">
-        <v>394.3633289856269</v>
+        <v>334.2489505259127</v>
       </c>
       <c r="F11" t="n">
-        <v>340.8722451234898</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>327.8001522282804</v>
+        <v>336.8531374743217</v>
       </c>
       <c r="H11" t="n">
-        <v>222.706254312334</v>
+        <v>298.6541171146935</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>65.72679149098423</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>31.92241821696096</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>29.49455899848388</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.85634635615706</v>
       </c>
       <c r="J12" t="n">
         <v>6.228584518226661</v>
@@ -23390,16 +23390,16 @@
         <v>98.03537458961453</v>
       </c>
       <c r="T12" t="n">
-        <v>155.8226171592196</v>
+        <v>88.92773960290137</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3458692164555</v>
+        <v>119.398006414096</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>135.626548934537</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>135.152973778675</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -23515,7 +23515,7 @@
         <v>298.6541171146935</v>
       </c>
       <c r="I14" t="n">
-        <v>51.06139321367294</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>15.38461185910352</v>
       </c>
       <c r="S14" t="n">
-        <v>37.6314778110228</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T14" t="n">
         <v>140.1275091645408</v>
@@ -23554,7 +23554,7 @@
         <v>178.470585121889</v>
       </c>
       <c r="V14" t="n">
-        <v>310.6623977623147</v>
+        <v>270.3913163145246</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23591,13 +23591,13 @@
         <v>105.4424218008434</v>
       </c>
       <c r="H15" t="n">
-        <v>57.95067369350272</v>
+        <v>65.42529764590962</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.85634635615706</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.228584518226661</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S15" t="n">
-        <v>22.08751178725504</v>
+        <v>98.03537458961453</v>
       </c>
       <c r="T15" t="n">
         <v>79.87475435686012</v>
@@ -23633,10 +23633,10 @@
         <v>119.398006414096</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>144.6795341805783</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>135.152973778675</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
@@ -23676,10 +23676,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J16" t="n">
-        <v>7.678137123478624</v>
+        <v>23.11334984944294</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.712245507081562</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>66.40922732593032</v>
       </c>
       <c r="S16" t="n">
-        <v>177.547131831091</v>
+        <v>156.3996735980452</v>
       </c>
       <c r="T16" t="n">
         <v>235.4417556781015</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>340.8722451234898</v>
       </c>
       <c r="G17" t="n">
-        <v>403.7480150306399</v>
+        <v>327.8001522282804</v>
       </c>
       <c r="H17" t="n">
-        <v>298.6541171146935</v>
+        <v>262.9773357601241</v>
       </c>
       <c r="I17" t="n">
         <v>51.06139321367294</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.21809620174886</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.68446305706405</v>
+        <v>113.5793406133823</v>
       </c>
       <c r="T17" t="n">
         <v>140.1275091645408</v>
       </c>
       <c r="U17" t="n">
-        <v>178.470585121889</v>
+        <v>254.4184479242485</v>
       </c>
       <c r="V17" t="n">
-        <v>270.3913163145246</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.95213950687126</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
         <v>132.6551205385437</v>
@@ -23825,16 +23825,16 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>87.4452326919866</v>
+        <v>105.4424218008434</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>22.3867664457484</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.228584518226661</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S18" t="n">
-        <v>22.08751178725504</v>
+        <v>98.03537458961453</v>
       </c>
       <c r="T18" t="n">
         <v>155.8226171592196</v>
@@ -23873,13 +23873,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>135.152973778675</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>98.61485924013661</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>81.86007723744876</v>
       </c>
     </row>
     <row r="19">
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.1773242806354</v>
+        <v>144.0298660475896</v>
       </c>
       <c r="H19" t="n">
         <v>144.5500124639718</v>
@@ -23949,7 +23949,7 @@
         <v>279.9483170948056</v>
       </c>
       <c r="V19" t="n">
-        <v>249.9994293768274</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>330.075481977503</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>334.2489505259126</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>340.8722451234897</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>327.8001522282804</v>
+        <v>403.7480150306399</v>
       </c>
       <c r="H20" t="n">
-        <v>298.6541171146935</v>
+        <v>231.7592395583753</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>51.06139321367294</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.21809620174883</v>
+        <v>31.21809620174886</v>
       </c>
       <c r="S20" t="n">
         <v>113.5793406133823</v>
       </c>
       <c r="T20" t="n">
-        <v>216.0753719669003</v>
+        <v>140.1275091645408</v>
       </c>
       <c r="U20" t="n">
         <v>254.4184479242485</v>
       </c>
       <c r="V20" t="n">
-        <v>330.5056947742387</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>320.9794435190313</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.95213950687116</v>
+        <v>72.00512475291252</v>
       </c>
       <c r="C21" t="n">
-        <v>56.70725773618415</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>48.83330864648319</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>43.34002504523569</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
@@ -24068,10 +24068,10 @@
         <v>65.42529764590962</v>
       </c>
       <c r="I21" t="n">
-        <v>23.85634635615705</v>
+        <v>23.85634635615706</v>
       </c>
       <c r="J21" t="n">
-        <v>6.22858451822664</v>
+        <v>6.228584518226661</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.33532272952759</v>
+        <v>29.33532272952761</v>
       </c>
       <c r="S21" t="n">
         <v>98.03537458961453</v>
       </c>
       <c r="T21" t="n">
-        <v>155.8226171592196</v>
+        <v>79.87475435686012</v>
       </c>
       <c r="U21" t="n">
         <v>195.3458692164555</v>
@@ -24110,10 +24110,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>135.152973778675</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>98.61485924013662</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -24150,10 +24150,10 @@
         <v>103.1365670983785</v>
       </c>
       <c r="J22" t="n">
-        <v>23.11334984944293</v>
+        <v>23.11334984944294</v>
       </c>
       <c r="K22" t="n">
-        <v>5.712245507081541</v>
+        <v>5.712245507081562</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,13 +24168,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.333581672172997</v>
+        <v>7.333581672173025</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.81784642339688</v>
+        <v>27.81784642339689</v>
       </c>
       <c r="R22" t="n">
-        <v>66.4092273259303</v>
+        <v>66.40922732593032</v>
       </c>
       <c r="S22" t="n">
         <v>177.547131831091</v>
@@ -24183,13 +24183,13 @@
         <v>235.4417556781015</v>
       </c>
       <c r="U22" t="n">
-        <v>258.8008588617597</v>
+        <v>279.9483170948056</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>255.1315096131685</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>186.5624103937484</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>186.4667873057664</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24217,13 +24217,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>403.2510401841353</v>
+        <v>183.6944827100391</v>
       </c>
       <c r="H23" t="n">
-        <v>293.5644734679276</v>
+        <v>74.00791599383145</v>
       </c>
       <c r="I23" t="n">
         <v>31.90177044380178</v>
@@ -24259,7 +24259,7 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T23" t="n">
-        <v>213.8998645763261</v>
+        <v>20.51444875314237</v>
       </c>
       <c r="U23" t="n">
         <v>254.3786899365281</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>203.541890498207</v>
+        <v>177.3707488472946</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>103.4062409784957</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
         <v>107.8702810193205</v>
@@ -24302,10 +24302,10 @@
         <v>105.1765168157536</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T24" t="n">
-        <v>152.4031190952952</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24372,10 +24372,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>131.0653872668985</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.9543984734636</v>
@@ -24432,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.26720728114296</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.7335520446607</v>
+        <v>212.7335520446608</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>190.6402558541761</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517532</v>
       </c>
       <c r="G26" t="n">
         <v>403.2510401841353</v>
       </c>
       <c r="H26" t="n">
-        <v>74.00791599383149</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I26" t="n">
         <v>31.90177044380178</v>
@@ -24499,7 +24499,7 @@
         <v>213.8998645763261</v>
       </c>
       <c r="U26" t="n">
-        <v>34.82213246243202</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24508,7 +24508,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>177.0804063786409</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>65.88580555086756</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -24578,13 +24578,13 @@
         <v>154.7508334693185</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>200.7598947515639</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -24654,7 +24654,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T28" t="n">
-        <v>234.4892545020035</v>
+        <v>43.26812015802359</v>
       </c>
       <c r="U28" t="n">
         <v>279.9361575053235</v>
@@ -24663,7 +24663,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>85.05783350223447</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24685,10 +24685,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>180.8627331337739</v>
       </c>
       <c r="E29" t="n">
-        <v>190.6402558541762</v>
+        <v>216.8113975050884</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24733,10 +24733,10 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T29" t="n">
-        <v>20.51444875314237</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U29" t="n">
-        <v>34.82213246243205</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>177.3707488472947</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
@@ -24773,10 +24773,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H30" t="n">
-        <v>22.34512591963627</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I30" t="n">
         <v>14.70128436951478</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>12.8258886552718</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>93.09630611656613</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>211.1008365810345</v>
+        <v>187.8967967501105</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24861,7 +24861,7 @@
         <v>96.43258009724633</v>
       </c>
       <c r="J31" t="n">
-        <v>7.352495282391885</v>
+        <v>1.954070268515955</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>173.6621429915595</v>
       </c>
       <c r="T31" t="n">
-        <v>43.26812015802358</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U31" t="n">
         <v>279.9361575053235</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937485</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24931,10 +24931,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>209.8656243609514</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H32" t="n">
-        <v>74.00791599383149</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I32" t="n">
         <v>31.90177044380178</v>
@@ -24976,16 +24976,16 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>152.9537632937003</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>160.366140382087</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786409</v>
       </c>
       <c r="Y32" t="n">
-        <v>177.3707488472947</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,19 +25004,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>32.433817501261</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>61.79411826844537</v>
       </c>
       <c r="G33" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>14.70128436951478</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T33" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>195.3283754674364</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>143.1157028433843</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.9543984734636</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.5679993783892</v>
@@ -25134,7 +25134,7 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V34" t="n">
-        <v>79.92575326589329</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.5624103937485</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>186.4667873057664</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25174,7 +25174,7 @@
         <v>293.5644734679276</v>
       </c>
       <c r="I35" t="n">
-        <v>31.90177044380178</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>102.2545262986572</v>
       </c>
       <c r="T35" t="n">
-        <v>20.51444875314237</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U35" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>126.782621642788</v>
       </c>
       <c r="W35" t="n">
         <v>160.366140382087</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786409</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>235.4436609420088</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>105.1765168157536</v>
@@ -25286,19 +25286,19 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T36" t="n">
-        <v>97.32039384097448</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U36" t="n">
         <v>195.3283754674364</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>203.1660574330529</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>140.3407068778987</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25362,7 +25362,7 @@
         <v>56.38567239618433</v>
       </c>
       <c r="S37" t="n">
-        <v>173.6621429915595</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>234.4892545020035</v>
@@ -25374,7 +25374,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>85.05783350223447</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25399,16 +25399,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>190.6402558541761</v>
+        <v>216.8113975050884</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>183.6944827100392</v>
+        <v>403.2510401841353</v>
       </c>
       <c r="H38" t="n">
-        <v>74.00791599383149</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I38" t="n">
         <v>31.90177044380178</v>
@@ -25450,13 +25450,13 @@
         <v>254.3786899365281</v>
       </c>
       <c r="V38" t="n">
-        <v>152.9537632937003</v>
+        <v>126.7826216427879</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>160.3661403820869</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>177.0804063786408</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>26.97054824928212</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25481,10 +25481,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H39" t="n">
         <v>62.85721528991137</v>
@@ -25523,10 +25523,10 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T39" t="n">
-        <v>50.93385238760693</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25560,7 +25560,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>164.9543984734636</v>
@@ -25596,7 +25596,7 @@
         <v>9.150849970123488</v>
       </c>
       <c r="R40" t="n">
-        <v>28.14935268271909</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S40" t="n">
         <v>173.6621429915595</v>
@@ -25605,7 +25605,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9361575053235</v>
+        <v>88.71502316134365</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25639,13 +25639,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>197.2635504517532</v>
+        <v>197.2635504517531</v>
       </c>
       <c r="G41" t="n">
-        <v>183.6944827100392</v>
+        <v>183.6944827100391</v>
       </c>
       <c r="H41" t="n">
-        <v>74.00791599383149</v>
+        <v>74.0079159938314</v>
       </c>
       <c r="I41" t="n">
         <v>31.90177044380178</v>
@@ -25690,13 +25690,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>186.5372820329992</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>203.541890498207</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -25766,13 +25766,13 @@
         <v>195.3283754674364</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>183.5539429714175</v>
       </c>
       <c r="X42" t="n">
-        <v>32.4338175012609</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>116.3012635078728</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I43" t="n">
         <v>96.43258009724633</v>
@@ -25845,7 +25845,7 @@
         <v>279.9361575053235</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>79.92575326589329</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>186.5624103937481</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>186.4667873057661</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>207.033874784686</v>
       </c>
       <c r="E44" t="n">
-        <v>190.6402558541761</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>197.2635504517532</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>183.6944827100392</v>
+        <v>183.6944827100388</v>
       </c>
       <c r="H44" t="n">
         <v>293.5644734679276</v>
       </c>
       <c r="I44" t="n">
-        <v>31.90177044380177</v>
+        <v>31.90177044380174</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>203.541890498207</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -25964,7 +25964,7 @@
         <v>62.85721528991137</v>
       </c>
       <c r="I45" t="n">
-        <v>14.70128436951478</v>
+        <v>14.70128436951476</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.82588865527179</v>
+        <v>12.82588865527176</v>
       </c>
       <c r="S45" t="n">
-        <v>93.09630611656613</v>
+        <v>20.32007462551956</v>
       </c>
       <c r="T45" t="n">
         <v>154.7508334693185</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3283754674364</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>124.2467662347002</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -26043,10 +26043,10 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I46" t="n">
-        <v>96.43258009724633</v>
+        <v>96.43258009724632</v>
       </c>
       <c r="J46" t="n">
-        <v>7.352495282391878</v>
+        <v>7.35249528239185</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.150849970123481</v>
+        <v>9.150849970123446</v>
       </c>
       <c r="R46" t="n">
-        <v>56.38567239618433</v>
+        <v>56.3856723961843</v>
       </c>
       <c r="S46" t="n">
         <v>173.6621429915595</v>
@@ -26079,7 +26079,7 @@
         <v>234.4892545020035</v>
       </c>
       <c r="U46" t="n">
-        <v>88.71502316134357</v>
+        <v>88.71502316134323</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>182220.4513170093</v>
+        <v>182220.4513170094</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>182220.4513170095</v>
+        <v>182220.4513170094</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>282399.9645328132</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>282399.9645328133</v>
+        <v>282399.9645328132</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>282399.9645328132</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>282399.9645328132</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>282399.9645328132</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282399.9645328132</v>
+        <v>282399.9645328133</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282399.9645328132</v>
+        <v>282399.9645328134</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>31378.67067758489</v>
       </c>
       <c r="C2" t="n">
-        <v>31378.67067758489</v>
+        <v>31378.67067758488</v>
       </c>
       <c r="D2" t="n">
-        <v>38429.82896495496</v>
+        <v>38429.82896495495</v>
       </c>
       <c r="E2" t="n">
-        <v>53991.24483466945</v>
+        <v>53991.24483466944</v>
       </c>
       <c r="F2" t="n">
-        <v>53991.24483466947</v>
+        <v>53991.24483466944</v>
       </c>
       <c r="G2" t="n">
-        <v>53991.24483466946</v>
+        <v>53991.24483466944</v>
       </c>
       <c r="H2" t="n">
         <v>53991.24483466945</v>
       </c>
       <c r="I2" t="n">
+        <v>83674.06356527802</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83674.06356527799</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83674.06356527802</v>
+      </c>
+      <c r="L2" t="n">
         <v>83674.063565278</v>
       </c>
-      <c r="J2" t="n">
-        <v>83674.06356527796</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83674.06356527796</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>83674.06356527802</v>
+      </c>
+      <c r="N2" t="n">
+        <v>83674.06356527799</v>
+      </c>
+      <c r="O2" t="n">
         <v>83674.06356527797</v>
       </c>
-      <c r="M2" t="n">
-        <v>83674.06356527796</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83674.06356527796</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83674.06356527796</v>
-      </c>
       <c r="P2" t="n">
-        <v>83674.06356527796</v>
+        <v>83674.06356527808</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>131245.2757302737</v>
+        <v>131245.2757302738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5104.08059001832</v>
+        <v>5104.080590018312</v>
       </c>
       <c r="M3" t="n">
         <v>13900.81965466823</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.891680767585058e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.54033106296797</v>
+        <v>12.54033106296798</v>
       </c>
       <c r="E4" t="n">
         <v>55.80904781929523</v>
@@ -26435,7 +26435,7 @@
         <v>55.80904781929523</v>
       </c>
       <c r="H4" t="n">
-        <v>55.80904781929532</v>
+        <v>55.80904781929523</v>
       </c>
       <c r="I4" t="n">
         <v>155.650379725</v>
@@ -26459,7 +26459,7 @@
         <v>155.650379725</v>
       </c>
       <c r="P4" t="n">
-        <v>155.6503797250001</v>
+        <v>155.6503797250003</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>38357.62869214527</v>
       </c>
       <c r="E5" t="n">
-        <v>9460.07116670349</v>
+        <v>9460.071166703492</v>
       </c>
       <c r="F5" t="n">
         <v>9460.07116670349</v>
       </c>
       <c r="G5" t="n">
+        <v>9460.071166703492</v>
+      </c>
+      <c r="H5" t="n">
         <v>9460.07116670349</v>
-      </c>
-      <c r="H5" t="n">
-        <v>9460.071166703499</v>
       </c>
       <c r="I5" t="n">
         <v>20886.45015162826</v>
@@ -26505,13 +26505,13 @@
         <v>20886.45015162825</v>
       </c>
       <c r="N5" t="n">
-        <v>20886.45015162825</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="O5" t="n">
-        <v>20886.45015162825</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="P5" t="n">
-        <v>20886.45015162826</v>
+        <v>20886.45015162828</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-132480.0099615786</v>
       </c>
       <c r="C6" t="n">
-        <v>-5129.992955565638</v>
+        <v>-5129.992955565645</v>
       </c>
       <c r="D6" t="n">
         <v>-30672.03803803903</v>
       </c>
       <c r="E6" t="n">
-        <v>-21510.17085835133</v>
+        <v>-21510.17085835135</v>
       </c>
       <c r="F6" t="n">
-        <v>44475.36462014668</v>
+        <v>44475.36462014665</v>
       </c>
       <c r="G6" t="n">
-        <v>44475.36462014668</v>
+        <v>44475.36462014665</v>
       </c>
       <c r="H6" t="n">
-        <v>44475.36462014665</v>
+        <v>44475.36462014666</v>
       </c>
       <c r="I6" t="n">
-        <v>-68613.3126963489</v>
+        <v>-68613.31269634902</v>
       </c>
       <c r="J6" t="n">
-        <v>62631.96303392471</v>
+        <v>62631.96303392474</v>
       </c>
       <c r="K6" t="n">
-        <v>62631.96303392471</v>
+        <v>62631.96303392477</v>
       </c>
       <c r="L6" t="n">
-        <v>57527.8824439064</v>
+        <v>57527.88244390643</v>
       </c>
       <c r="M6" t="n">
-        <v>48731.14337925648</v>
+        <v>48731.14337925653</v>
       </c>
       <c r="N6" t="n">
-        <v>62631.96303392471</v>
+        <v>62631.96303392472</v>
       </c>
       <c r="O6" t="n">
         <v>62631.96303392471</v>
       </c>
       <c r="P6" t="n">
-        <v>62631.9630339247</v>
+        <v>62631.96303392461</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>222.1303260697263</v>
       </c>
       <c r="H3" t="n">
-        <v>222.1303260697264</v>
+        <v>222.1303260697263</v>
       </c>
       <c r="I3" t="n">
         <v>345.7528191377621</v>
@@ -26779,7 +26779,7 @@
         <v>345.7528191377621</v>
       </c>
       <c r="P3" t="n">
-        <v>345.7528191377622</v>
+        <v>345.7528191377624</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>20.16697784598549</v>
       </c>
       <c r="E4" t="n">
-        <v>75.9478628023595</v>
+        <v>75.94786280235951</v>
       </c>
       <c r="F4" t="n">
         <v>75.9478628023595</v>
       </c>
       <c r="G4" t="n">
+        <v>75.94786280235951</v>
+      </c>
+      <c r="H4" t="n">
         <v>75.9478628023595</v>
       </c>
-      <c r="H4" t="n">
-        <v>75.94786280235959</v>
-      </c>
       <c r="I4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="J4" t="n">
         <v>219.5565574740961</v>
@@ -26825,13 +26825,13 @@
         <v>219.5565574740961</v>
       </c>
       <c r="N4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="O4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="P4" t="n">
-        <v>219.5565574740961</v>
+        <v>219.5565574740965</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6224930680357</v>
+        <v>123.6224930680358</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="E4" t="n">
-        <v>55.78088495637401</v>
+        <v>55.78088495637402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>143.6086946717365</v>
+        <v>143.6086946717367</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>20.16697784598551</v>
+        <v>20.16697784598549</v>
       </c>
       <c r="M4" t="n">
-        <v>55.78088495637401</v>
+        <v>55.78088495637402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>20.16697784598549</v>
       </c>
       <c r="M4" t="n">
-        <v>55.78088495637401</v>
+        <v>55.78088495637402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.531291988963262</v>
       </c>
       <c r="H5" t="n">
-        <v>5.441094081970009</v>
+        <v>5.441094081970008</v>
       </c>
       <c r="I5" t="n">
         <v>20.48263440450618</v>
@@ -31293,7 +31293,7 @@
         <v>67.5823333410856</v>
       </c>
       <c r="L5" t="n">
-        <v>83.84186054832006</v>
+        <v>83.84186054832004</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -31363,7 +31363,7 @@
         <v>2.745413761553346</v>
       </c>
       <c r="I6" t="n">
-        <v>9.78723797828963</v>
+        <v>9.787237978289628</v>
       </c>
       <c r="J6" t="n">
         <v>26.85692908157158</v>
@@ -31387,13 +31387,13 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.28634065224731</v>
+        <v>36.2863406522473</v>
       </c>
       <c r="R6" t="n">
         <v>17.64944469053096</v>
       </c>
       <c r="S6" t="n">
-        <v>5.280121380644147</v>
+        <v>5.280121380644146</v>
       </c>
       <c r="T6" t="n">
         <v>1.14579257350932</v>
@@ -31442,7 +31442,7 @@
         <v>2.118875194180494</v>
       </c>
       <c r="I7" t="n">
-        <v>7.166911188495985</v>
+        <v>7.166911188495984</v>
       </c>
       <c r="J7" t="n">
         <v>16.84917421793629</v>
@@ -31463,7 +31463,7 @@
         <v>33.68534920155247</v>
       </c>
       <c r="P7" t="n">
-        <v>28.82363556582543</v>
+        <v>28.82363556582542</v>
       </c>
       <c r="Q7" t="n">
         <v>19.95599122044634</v>
@@ -31472,7 +31472,7 @@
         <v>10.7157021578903</v>
       </c>
       <c r="S7" t="n">
-        <v>4.153255365280168</v>
+        <v>4.153255365280167</v>
       </c>
       <c r="T7" t="n">
         <v>1.018273355076515</v>
@@ -31615,10 +31615,10 @@
         <v>77.73126158440292</v>
       </c>
       <c r="N9" t="n">
-        <v>73.36037123973549</v>
+        <v>62.00516089764815</v>
       </c>
       <c r="O9" t="n">
-        <v>66.56324650389816</v>
+        <v>77.91845684598547</v>
       </c>
       <c r="P9" t="n">
         <v>66.01686533059687</v>
@@ -31843,7 +31843,7 @@
         <v>45.14065428177335</v>
       </c>
       <c r="K12" t="n">
-        <v>77.15256806518032</v>
+        <v>77.1525680651803</v>
       </c>
       <c r="L12" t="n">
         <v>103.7411489819038</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8929862354561859</v>
+        <v>0.8929862354561854</v>
       </c>
       <c r="H20" t="n">
-        <v>9.145295283865666</v>
+        <v>9.145295283865661</v>
       </c>
       <c r="I20" t="n">
-        <v>34.42685184242464</v>
+        <v>34.42685184242463</v>
       </c>
       <c r="J20" t="n">
-        <v>75.79109050154953</v>
+        <v>75.79109050154949</v>
       </c>
       <c r="K20" t="n">
-        <v>113.5911978484099</v>
+        <v>113.5911978484098</v>
       </c>
       <c r="L20" t="n">
-        <v>140.9199253517522</v>
+        <v>140.9199253517521</v>
       </c>
       <c r="M20" t="n">
-        <v>156.8005693165461</v>
+        <v>156.800569316546</v>
       </c>
       <c r="N20" t="n">
-        <v>159.337766458036</v>
+        <v>159.3377664580359</v>
       </c>
       <c r="O20" t="n">
-        <v>150.4581345792186</v>
+        <v>150.4581345792185</v>
       </c>
       <c r="P20" t="n">
-        <v>128.412536891394</v>
+        <v>128.4125368913939</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.43246733411927</v>
+        <v>96.43246733411921</v>
       </c>
       <c r="R20" t="n">
-        <v>56.09404661297469</v>
+        <v>56.09404661297466</v>
       </c>
       <c r="S20" t="n">
-        <v>20.34892384045786</v>
+        <v>20.34892384045785</v>
       </c>
       <c r="T20" t="n">
-        <v>3.909047245709456</v>
+        <v>3.909047245709454</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07143889883649486</v>
+        <v>0.07143889883649482</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4777897579612984</v>
+        <v>0.4777897579612981</v>
       </c>
       <c r="H21" t="n">
-        <v>4.614443188731487</v>
+        <v>4.614443188731485</v>
       </c>
       <c r="I21" t="n">
-        <v>16.45021754384295</v>
+        <v>16.45021754384294</v>
       </c>
       <c r="J21" t="n">
-        <v>45.14065428177337</v>
+        <v>45.14065428177335</v>
       </c>
       <c r="K21" t="n">
-        <v>77.15256806518036</v>
+        <v>77.15256806518032</v>
       </c>
       <c r="L21" t="n">
         <v>103.7411489819038</v>
       </c>
       <c r="M21" t="n">
-        <v>121.0610277080009</v>
+        <v>121.0610277080008</v>
       </c>
       <c r="N21" t="n">
         <v>124.265152883101</v>
       </c>
       <c r="O21" t="n">
-        <v>113.6783377198533</v>
+        <v>113.6783377198532</v>
       </c>
       <c r="P21" t="n">
-        <v>91.23688807946934</v>
+        <v>91.23688807946928</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.98944348993697</v>
+        <v>60.98944348993693</v>
       </c>
       <c r="R21" t="n">
-        <v>29.66487637587781</v>
+        <v>29.6648763758778</v>
       </c>
       <c r="S21" t="n">
-        <v>8.874735197219724</v>
+        <v>8.874735197219719</v>
       </c>
       <c r="T21" t="n">
-        <v>1.92582801564225</v>
+        <v>1.925828015642249</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03143353670798017</v>
+        <v>0.03143353670798015</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4005628830765557</v>
+        <v>0.4005628830765556</v>
       </c>
       <c r="H22" t="n">
-        <v>3.561368178626108</v>
+        <v>3.561368178626106</v>
       </c>
       <c r="I22" t="n">
-        <v>12.04601833833861</v>
+        <v>12.0460183383386</v>
       </c>
       <c r="J22" t="n">
-        <v>28.31979583351249</v>
+        <v>28.31979583351248</v>
       </c>
       <c r="K22" t="n">
-        <v>46.53812405198529</v>
+        <v>46.53812405198526</v>
       </c>
       <c r="L22" t="n">
-        <v>59.55277627121813</v>
+        <v>59.5527762712181</v>
       </c>
       <c r="M22" t="n">
-        <v>62.79005266262773</v>
+        <v>62.7900526626277</v>
       </c>
       <c r="N22" t="n">
-        <v>61.2970455529788</v>
+        <v>61.29704555297877</v>
       </c>
       <c r="O22" t="n">
-        <v>56.61774278249356</v>
+        <v>56.61774278249353</v>
       </c>
       <c r="P22" t="n">
-        <v>48.44625996773178</v>
+        <v>48.44625996773176</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.54167923652869</v>
+        <v>33.54167923652867</v>
       </c>
       <c r="R22" t="n">
-        <v>18.01076381542404</v>
+        <v>18.01076381542403</v>
       </c>
       <c r="S22" t="n">
-        <v>6.980718607797792</v>
+        <v>6.980718607797789</v>
       </c>
       <c r="T22" t="n">
-        <v>1.711495954963465</v>
+        <v>1.711495954963464</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02184888453144852</v>
+        <v>0.02184888453144851</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.389961081960852</v>
+        <v>1.389961081960853</v>
       </c>
       <c r="H44" t="n">
-        <v>14.23493893063158</v>
+        <v>14.23493893063159</v>
       </c>
       <c r="I44" t="n">
-        <v>53.5864746122958</v>
+        <v>53.58647461229583</v>
       </c>
       <c r="J44" t="n">
         <v>117.971209380075</v>
       </c>
       <c r="K44" t="n">
-        <v>176.8082619794779</v>
+        <v>176.808261979478</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3462834415373</v>
+        <v>219.3462834415375</v>
       </c>
       <c r="M44" t="n">
-        <v>244.0650038328586</v>
+        <v>244.0650038328588</v>
       </c>
       <c r="N44" t="n">
-        <v>248.0142307569799</v>
+        <v>248.0142307569801</v>
       </c>
       <c r="O44" t="n">
-        <v>234.1928052482317</v>
+        <v>234.1928052482318</v>
       </c>
       <c r="P44" t="n">
-        <v>199.8781410373231</v>
+        <v>199.8781410373232</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.1001597896</v>
+        <v>150.1001597896002</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472344</v>
+        <v>87.3121428147235</v>
       </c>
       <c r="S44" t="n">
-        <v>31.67373815518295</v>
+        <v>31.67373815518297</v>
       </c>
       <c r="T44" t="n">
-        <v>6.084554636283633</v>
+        <v>6.084554636283636</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1111968865568681</v>
+        <v>0.1111968865568682</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7436947430510357</v>
+        <v>0.7436947430510361</v>
       </c>
       <c r="H45" t="n">
-        <v>7.18252554472974</v>
+        <v>7.182525544729745</v>
       </c>
       <c r="I45" t="n">
-        <v>25.60527953048522</v>
+        <v>25.60527953048524</v>
       </c>
       <c r="J45" t="n">
-        <v>70.26284412308053</v>
+        <v>70.26284412308058</v>
       </c>
       <c r="K45" t="n">
-        <v>120.0903919074999</v>
+        <v>120.0903919075</v>
       </c>
       <c r="L45" t="n">
-        <v>161.4763519944804</v>
+        <v>161.4763519944805</v>
       </c>
       <c r="M45" t="n">
-        <v>188.4352864300804</v>
+        <v>188.4352864300805</v>
       </c>
       <c r="N45" t="n">
-        <v>193.4226077551902</v>
+        <v>193.4226077551903</v>
       </c>
       <c r="O45" t="n">
-        <v>176.9438979223225</v>
+        <v>176.9438979223226</v>
       </c>
       <c r="P45" t="n">
-        <v>142.0130777322631</v>
+        <v>142.0130777322632</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.93198158665501</v>
+        <v>94.93198158665507</v>
       </c>
       <c r="R45" t="n">
-        <v>46.17431045013362</v>
+        <v>46.17431045013365</v>
       </c>
       <c r="S45" t="n">
-        <v>13.81380367026813</v>
+        <v>13.81380367026814</v>
       </c>
       <c r="T45" t="n">
-        <v>2.997611705543428</v>
+        <v>2.997611705543429</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04892728572704184</v>
+        <v>0.04892728572704187</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6234886902484236</v>
+        <v>0.6234886902484239</v>
       </c>
       <c r="H46" t="n">
-        <v>5.543381264208715</v>
+        <v>5.543381264208719</v>
       </c>
       <c r="I46" t="n">
-        <v>18.75000533947078</v>
+        <v>18.75000533947079</v>
       </c>
       <c r="J46" t="n">
-        <v>44.08065040056354</v>
+        <v>44.08065040056357</v>
       </c>
       <c r="K46" t="n">
-        <v>72.43804964886228</v>
+        <v>72.43804964886233</v>
       </c>
       <c r="L46" t="n">
-        <v>92.69576400293381</v>
+        <v>92.69576400293388</v>
       </c>
       <c r="M46" t="n">
-        <v>97.73468623594151</v>
+        <v>97.73468623594157</v>
       </c>
       <c r="N46" t="n">
-        <v>95.41077384501564</v>
+        <v>95.4107738450157</v>
       </c>
       <c r="O46" t="n">
-        <v>88.12729232711357</v>
+        <v>88.12729232711362</v>
       </c>
       <c r="P46" t="n">
-        <v>75.40812304604566</v>
+        <v>75.40812304604572</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.20867568980209</v>
+        <v>52.20867568980212</v>
       </c>
       <c r="R46" t="n">
-        <v>28.03431874517002</v>
+        <v>28.03431874517004</v>
       </c>
       <c r="S46" t="n">
-        <v>10.86570744732934</v>
+        <v>10.86570744732935</v>
       </c>
       <c r="T46" t="n">
-        <v>2.663997131061445</v>
+        <v>2.663997131061447</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03400847401355041</v>
+        <v>0.03400847401355044</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>20.16697784598549</v>
       </c>
       <c r="N9" t="n">
+        <v>8.811767503898162</v>
+      </c>
+      <c r="O9" t="n">
         <v>20.16697784598549</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.811767503898162</v>
       </c>
       <c r="P9" t="n">
         <v>11.75723032779312</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.32678528056493</v>
+        <v>21.32678528056491</v>
       </c>
       <c r="L12" t="n">
         <v>47.62662517105474</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.467499168241588</v>
+        <v>2.467499168241545</v>
       </c>
       <c r="K20" t="n">
-        <v>24.45480817519277</v>
+        <v>24.45480817519271</v>
       </c>
       <c r="L20" t="n">
-        <v>45.43452728890735</v>
+        <v>45.43452728890729</v>
       </c>
       <c r="M20" t="n">
-        <v>63.51034485950065</v>
+        <v>63.51034485950059</v>
       </c>
       <c r="N20" t="n">
-        <v>66.42547570141669</v>
+        <v>66.4254757014166</v>
       </c>
       <c r="O20" t="n">
-        <v>57.26835895343542</v>
+        <v>57.26835895343534</v>
       </c>
       <c r="P20" t="n">
-        <v>34.7631736105098</v>
+        <v>34.76317361050971</v>
       </c>
       <c r="Q20" t="n">
-        <v>6.39866293496722</v>
+        <v>6.398662934967163</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.32678528056497</v>
+        <v>21.32678528056493</v>
       </c>
       <c r="L21" t="n">
-        <v>47.62662517105478</v>
+        <v>47.62662517105474</v>
       </c>
       <c r="M21" t="n">
-        <v>63.49674396958346</v>
+        <v>63.49674396958338</v>
       </c>
       <c r="N21" t="n">
-        <v>71.07175948935102</v>
+        <v>71.07175948935097</v>
       </c>
       <c r="O21" t="n">
-        <v>55.92685871985329</v>
+        <v>55.92685871985324</v>
       </c>
       <c r="P21" t="n">
-        <v>36.97725307666559</v>
+        <v>36.97725307666553</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.296824985098247</v>
+        <v>4.296824985098212</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,16 +36284,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.924482377316622</v>
+        <v>4.924482377316593</v>
       </c>
       <c r="M22" t="n">
-        <v>6.525110163847685</v>
+        <v>6.525110163847657</v>
       </c>
       <c r="N22" t="n">
-        <v>9.584400044559359</v>
+        <v>9.584400044559324</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5428447094972313</v>
+        <v>0.5428447094972029</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.64761804676702</v>
+        <v>44.64761804676709</v>
       </c>
       <c r="K44" t="n">
-        <v>87.67187230626074</v>
+        <v>87.67187230626085</v>
       </c>
       <c r="L44" t="n">
-        <v>123.8608853786925</v>
+        <v>123.8608853786927</v>
       </c>
       <c r="M44" t="n">
-        <v>150.7747793758132</v>
+        <v>150.7747793758133</v>
       </c>
       <c r="N44" t="n">
-        <v>155.1019400003606</v>
+        <v>155.1019400003607</v>
       </c>
       <c r="O44" t="n">
-        <v>141.0030296224485</v>
+        <v>141.0030296224487</v>
       </c>
       <c r="P44" t="n">
-        <v>106.2287777564389</v>
+        <v>106.2287777564391</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.066355390448</v>
+        <v>60.06635539044811</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89360532308051</v>
+        <v>18.89360532308057</v>
       </c>
       <c r="K45" t="n">
-        <v>64.26460912288454</v>
+        <v>64.26460912288459</v>
       </c>
       <c r="L45" t="n">
-        <v>105.3618281836313</v>
+        <v>105.3618281836314</v>
       </c>
       <c r="M45" t="n">
-        <v>130.8710026916629</v>
+        <v>130.8710026916631</v>
       </c>
       <c r="N45" t="n">
-        <v>140.2292143614402</v>
+        <v>140.2292143614403</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1924189223225</v>
+        <v>119.1924189223226</v>
       </c>
       <c r="P45" t="n">
-        <v>87.75344272945938</v>
+        <v>87.75344272945946</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.23936308181629</v>
+        <v>38.23936308181635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>20.18768008979545</v>
+        <v>20.18768008979551</v>
       </c>
       <c r="L46" t="n">
-        <v>38.06747010903231</v>
+        <v>38.06747010903238</v>
       </c>
       <c r="M46" t="n">
-        <v>41.46974373716147</v>
+        <v>41.46974373716152</v>
       </c>
       <c r="N46" t="n">
-        <v>43.6981283365962</v>
+        <v>43.69812833659626</v>
       </c>
       <c r="O46" t="n">
-        <v>32.05239425411724</v>
+        <v>32.0523942541173</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62828140614088</v>
+        <v>19.62828140614094</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
